--- a/datos/citas_creadas.xlsx
+++ b/datos/citas_creadas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositorios\estadistica_agendamientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F41ED4-0879-4ACC-BE27-CA57606A70F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AE1A3E-FD48-49A1-9082-E7A54A027D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>07_02_2024</t>
+  </si>
+  <si>
+    <t>11_02_2024</t>
   </si>
 </sst>
 </file>
@@ -385,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,7 +401,7 @@
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +423,11 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -443,8 +449,11 @@
       <c r="G2">
         <v>1097</v>
       </c>
+      <c r="H2">
+        <v>1164</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -466,8 +475,11 @@
       <c r="G3">
         <v>1072</v>
       </c>
+      <c r="H3">
+        <v>1121</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -489,8 +501,11 @@
       <c r="G4">
         <v>1157</v>
       </c>
+      <c r="H4">
+        <v>1175</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -512,8 +527,11 @@
       <c r="G5">
         <v>2930</v>
       </c>
+      <c r="H5">
+        <v>2938</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F6" s="2"/>
     </row>
   </sheetData>

--- a/datos/citas_creadas.xlsx
+++ b/datos/citas_creadas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositorios\estadistica_agendamientos\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AE1A3E-FD48-49A1-9082-E7A54A027D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A91A73-FD10-4E9E-8EE8-CC5D60CD4C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -61,22 +61,20 @@
   </si>
   <si>
     <t>11_02_2024</t>
+  </si>
+  <si>
+    <t>Constanza</t>
+  </si>
+  <si>
+    <t>18_02_2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -104,10 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,7 +398,7 @@
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +423,11 @@
       <c r="H1" t="s">
         <v>11</v>
       </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -452,8 +452,11 @@
       <c r="H2">
         <v>1164</v>
       </c>
+      <c r="I2">
+        <v>1164</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -478,8 +481,11 @@
       <c r="H3">
         <v>1121</v>
       </c>
+      <c r="I3">
+        <v>1221</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -504,8 +510,11 @@
       <c r="H4">
         <v>1175</v>
       </c>
+      <c r="I4">
+        <v>1212</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -530,9 +539,38 @@
       <c r="H5">
         <v>2938</v>
       </c>
+      <c r="I5">
+        <v>2989</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F6" s="2"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/citas_creadas.xlsx
+++ b/datos/citas_creadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A91A73-FD10-4E9E-8EE8-CC5D60CD4C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070DD1CF-9980-4A1B-A943-9BA695AF568C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Recepcionista</t>
   </si>
   <si>
-    <t>18_12_2023</t>
-  </si>
-  <si>
-    <t>05_01_2024</t>
-  </si>
-  <si>
-    <t>15_01_2024</t>
-  </si>
-  <si>
     <t>Alejandro</t>
   </si>
   <si>
@@ -49,15 +40,6 @@
   </si>
   <si>
     <t>Felipe</t>
-  </si>
-  <si>
-    <t>21_01_2024</t>
-  </si>
-  <si>
-    <t>28_01_2024</t>
-  </si>
-  <si>
-    <t>07_02_2024</t>
   </si>
   <si>
     <t>11_02_2024</t>
@@ -385,190 +367,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>1164</v>
+      </c>
+      <c r="C2">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3">
+        <v>1121</v>
+      </c>
+      <c r="C3">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B4">
+        <v>1175</v>
+      </c>
+      <c r="C4">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>630</v>
-      </c>
-      <c r="C2">
-        <v>784</v>
-      </c>
-      <c r="D2">
-        <v>877</v>
-      </c>
-      <c r="E2">
-        <v>916</v>
-      </c>
-      <c r="F2">
-        <v>983</v>
-      </c>
-      <c r="G2">
-        <v>1097</v>
-      </c>
-      <c r="H2">
-        <v>1164</v>
-      </c>
-      <c r="I2">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>530</v>
-      </c>
-      <c r="C3">
-        <v>739</v>
-      </c>
-      <c r="D3">
-        <v>836</v>
-      </c>
-      <c r="E3">
-        <v>890</v>
-      </c>
-      <c r="F3">
-        <v>933</v>
-      </c>
-      <c r="G3">
-        <v>1072</v>
-      </c>
-      <c r="H3">
-        <v>1121</v>
-      </c>
-      <c r="I3">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>2938</v>
+      </c>
+      <c r="C5">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
-      </c>
-      <c r="B4">
-        <v>914</v>
-      </c>
-      <c r="C4">
-        <v>979</v>
-      </c>
-      <c r="D4">
-        <v>1044</v>
-      </c>
-      <c r="E4">
-        <v>1068</v>
-      </c>
-      <c r="F4">
-        <v>1108</v>
-      </c>
-      <c r="G4">
-        <v>1157</v>
-      </c>
-      <c r="H4">
-        <v>1175</v>
-      </c>
-      <c r="I4">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>2778</v>
-      </c>
-      <c r="C5">
-        <v>2789</v>
-      </c>
-      <c r="D5">
-        <v>2799</v>
-      </c>
-      <c r="E5">
-        <v>2845</v>
-      </c>
-      <c r="F5">
-        <v>2882</v>
-      </c>
-      <c r="G5">
-        <v>2930</v>
-      </c>
-      <c r="H5">
-        <v>2938</v>
-      </c>
-      <c r="I5">
-        <v>2989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
         <v>27</v>
       </c>
     </row>

--- a/datos/citas_creadas.xlsx
+++ b/datos/citas_creadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070DD1CF-9980-4A1B-A943-9BA695AF568C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A91A73-FD10-4E9E-8EE8-CC5D60CD4C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Recepcionista</t>
   </si>
   <si>
+    <t>18_12_2023</t>
+  </si>
+  <si>
+    <t>05_01_2024</t>
+  </si>
+  <si>
+    <t>15_01_2024</t>
+  </si>
+  <si>
     <t>Alejandro</t>
   </si>
   <si>
@@ -40,6 +49,15 @@
   </si>
   <si>
     <t>Felipe</t>
+  </si>
+  <si>
+    <t>21_01_2024</t>
+  </si>
+  <si>
+    <t>28_01_2024</t>
+  </si>
+  <si>
+    <t>07_02_2024</t>
   </si>
   <si>
     <t>11_02_2024</t>
@@ -367,80 +385,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>630</v>
+      </c>
+      <c r="C2">
+        <v>784</v>
+      </c>
+      <c r="D2">
+        <v>877</v>
+      </c>
+      <c r="E2">
+        <v>916</v>
+      </c>
+      <c r="F2">
+        <v>983</v>
+      </c>
+      <c r="G2">
+        <v>1097</v>
+      </c>
+      <c r="H2">
+        <v>1164</v>
+      </c>
+      <c r="I2">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3">
+        <v>530</v>
+      </c>
+      <c r="C3">
+        <v>739</v>
+      </c>
+      <c r="D3">
+        <v>836</v>
+      </c>
+      <c r="E3">
+        <v>890</v>
+      </c>
+      <c r="F3">
+        <v>933</v>
+      </c>
+      <c r="G3">
+        <v>1072</v>
+      </c>
+      <c r="H3">
+        <v>1121</v>
+      </c>
+      <c r="I3">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>914</v>
+      </c>
+      <c r="C4">
+        <v>979</v>
+      </c>
+      <c r="D4">
+        <v>1044</v>
+      </c>
+      <c r="E4">
+        <v>1068</v>
+      </c>
+      <c r="F4">
+        <v>1108</v>
+      </c>
+      <c r="G4">
+        <v>1157</v>
+      </c>
+      <c r="H4">
+        <v>1175</v>
+      </c>
+      <c r="I4">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5">
+        <v>2778</v>
+      </c>
+      <c r="C5">
+        <v>2789</v>
+      </c>
+      <c r="D5">
+        <v>2799</v>
+      </c>
+      <c r="E5">
+        <v>2845</v>
+      </c>
+      <c r="F5">
+        <v>2882</v>
+      </c>
+      <c r="G5">
+        <v>2930</v>
+      </c>
+      <c r="H5">
+        <v>2938</v>
+      </c>
+      <c r="I5">
+        <v>2989</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1164</v>
-      </c>
-      <c r="C2">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1121</v>
-      </c>
-      <c r="C3">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1175</v>
-      </c>
-      <c r="C4">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2938</v>
-      </c>
-      <c r="C5">
-        <v>2989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>27</v>
       </c>
     </row>

--- a/datos/citas_creadas.xlsx
+++ b/datos/citas_creadas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\insta\hola\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A91A73-FD10-4E9E-8EE8-CC5D60CD4C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90602DD-0FFD-4598-98DA-56B987CF6E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="4185" windowWidth="11865" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>11_02_2024</t>
-  </si>
-  <si>
-    <t>Constanza</t>
   </si>
   <si>
     <t>18_02_2024</t>
@@ -385,20 +382,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,10 +421,10 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -456,7 +453,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -485,7 +482,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -514,7 +511,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -541,35 +538,6 @@
       </c>
       <c r="I5">
         <v>2989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/datos/citas_creadas.xlsx
+++ b/datos/citas_creadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070DD1CF-9980-4A1B-A943-9BA695AF568C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB7A1A4-524E-47B5-8DBD-95B40E824310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>18_02_2024</t>
+  </si>
+  <si>
+    <t>25_02_2024</t>
   </si>
 </sst>
 </file>
@@ -367,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -378,7 +381,7 @@
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,8 +391,11 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -399,8 +405,11 @@
       <c r="C2">
         <v>1164</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -410,8 +419,11 @@
       <c r="C3">
         <v>1221</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -421,8 +433,11 @@
       <c r="C4">
         <v>1212</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -432,8 +447,11 @@
       <c r="C5">
         <v>2989</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -442,6 +460,9 @@
       </c>
       <c r="C6">
         <v>27</v>
+      </c>
+      <c r="D6">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/datos/citas_creadas.xlsx
+++ b/datos/citas_creadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB7A1A4-524E-47B5-8DBD-95B40E824310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB60E5F-52F5-41DF-A108-34C4723B4DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,18 +371,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,8 +396,11 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -408,8 +413,11 @@
       <c r="D2">
         <v>1245</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -422,8 +430,11 @@
       <c r="D3">
         <v>1281</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -436,8 +447,11 @@
       <c r="D4">
         <v>1275</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -450,8 +464,11 @@
       <c r="D5">
         <v>3015</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -463,6 +480,9 @@
       </c>
       <c r="D6">
         <v>83</v>
+      </c>
+      <c r="E6">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/datos/citas_creadas.xlsx
+++ b/datos/citas_creadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB60E5F-52F5-41DF-A108-34C4723B4DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12CABBB-5111-4A72-9BF3-C9575F0BB330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>25_02_2024</t>
+  </si>
+  <si>
+    <t>03_03_2024</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -396,8 +399,8 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2">
-        <v>45354</v>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">

--- a/datos/citas_creadas.xlsx
+++ b/datos/citas_creadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12CABBB-5111-4A72-9BF3-C9575F0BB330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9796D49-610F-4C10-936C-CCD2F7916F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>03_03_2024</t>
+  </si>
+  <si>
+    <t>11_03_2024</t>
   </si>
 </sst>
 </file>
@@ -374,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -386,7 +389,7 @@
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +405,11 @@
       <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -419,8 +425,11 @@
       <c r="E2">
         <v>1314</v>
       </c>
+      <c r="F2">
+        <v>1405</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -436,8 +445,11 @@
       <c r="E3">
         <v>1355</v>
       </c>
+      <c r="F3">
+        <v>1448</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -453,8 +465,11 @@
       <c r="E4">
         <v>1330</v>
       </c>
+      <c r="F4">
+        <v>1548</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -470,8 +485,11 @@
       <c r="E5">
         <v>3054</v>
       </c>
+      <c r="F5">
+        <v>3080</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -486,6 +504,9 @@
       </c>
       <c r="E6">
         <v>155</v>
+      </c>
+      <c r="F6">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/datos/citas_creadas.xlsx
+++ b/datos/citas_creadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9796D49-610F-4C10-936C-CCD2F7916F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6FA661-3DEC-441D-9B78-B71A277051C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -39,18 +39,9 @@
     <t>Betty</t>
   </si>
   <si>
-    <t>Felipe</t>
-  </si>
-  <si>
-    <t>11_02_2024</t>
-  </si>
-  <si>
     <t>Constanza</t>
   </si>
   <si>
-    <t>18_02_2024</t>
-  </si>
-  <si>
     <t>25_02_2024</t>
   </si>
   <si>
@@ -58,6 +49,9 @@
   </si>
   <si>
     <t>11_03_2024</t>
+  </si>
+  <si>
+    <t>17_03_2024</t>
   </si>
 </sst>
 </file>
@@ -377,136 +371,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1164</v>
+        <v>1245</v>
       </c>
       <c r="C2">
-        <v>1164</v>
+        <v>1314</v>
       </c>
       <c r="D2">
-        <v>1245</v>
+        <v>1405</v>
       </c>
       <c r="E2">
-        <v>1314</v>
-      </c>
-      <c r="F2">
-        <v>1405</v>
+        <v>1487</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1121</v>
+        <v>1281</v>
       </c>
       <c r="C3">
-        <v>1221</v>
+        <v>1355</v>
       </c>
       <c r="D3">
-        <v>1281</v>
+        <v>1448</v>
       </c>
       <c r="E3">
-        <v>1355</v>
-      </c>
-      <c r="F3">
         <v>1448</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1175</v>
+        <v>1275</v>
       </c>
       <c r="C4">
-        <v>1212</v>
+        <v>1330</v>
       </c>
       <c r="D4">
-        <v>1275</v>
+        <v>1383</v>
       </c>
       <c r="E4">
-        <v>1330</v>
-      </c>
-      <c r="F4">
-        <v>1548</v>
+        <v>1412</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2938</v>
+        <v>83</v>
       </c>
       <c r="C5">
-        <v>2989</v>
+        <v>155</v>
       </c>
       <c r="D5">
-        <v>3015</v>
+        <v>231</v>
       </c>
       <c r="E5">
-        <v>3054</v>
-      </c>
-      <c r="F5">
-        <v>3080</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>83</v>
-      </c>
-      <c r="E6">
-        <v>155</v>
-      </c>
-      <c r="F6">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/datos/citas_creadas.xlsx
+++ b/datos/citas_creadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6FA661-3DEC-441D-9B78-B71A277051C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A537DB0E-4FC1-49C3-AE8C-A7A8DDE9E8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,7 +431,7 @@
         <v>1448</v>
       </c>
       <c r="E3">
-        <v>1448</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">

--- a/datos/citas_creadas.xlsx
+++ b/datos/citas_creadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A537DB0E-4FC1-49C3-AE8C-A7A8DDE9E8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8BA27E-2447-498F-B674-95C24D321354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>17_03_2024</t>
+  </si>
+  <si>
+    <t>25_03_2024</t>
   </si>
 </sst>
 </file>
@@ -371,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,7 +386,7 @@
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,8 +402,11 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -416,8 +422,11 @@
       <c r="E2">
         <v>1487</v>
       </c>
+      <c r="F2">
+        <v>1580</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -433,8 +442,11 @@
       <c r="E3">
         <v>1528</v>
       </c>
+      <c r="F3">
+        <v>1619</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -450,8 +462,11 @@
       <c r="E4">
         <v>1412</v>
       </c>
+      <c r="F4">
+        <v>1474</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -466,6 +481,9 @@
       </c>
       <c r="E5">
         <v>261</v>
+      </c>
+      <c r="F5">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
